--- a/ref/DataSheet.xlsx
+++ b/ref/DataSheet.xlsx
@@ -286,7 +286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -380,15 +380,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="174"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="90" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="174" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,7 +485,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="90"/>
+    <cellStyle name="Hyperlink" xfId="174"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/ref/DataSheet.xlsx
+++ b/ref/DataSheet.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACT-STUDENT\source\repos\StudentLogin\ref\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71977149-E308-4E12-AC15-1C32FE04F70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Evaluation Warning" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -239,7 +244,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,7 +258,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -271,7 +276,7 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -286,277 +291,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="174"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="174" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="174"/>
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -866,22 +633,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57DF409-AC81-4964-831F-004138642306}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.00390625" widthPt="105" style="0" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8515625" widthPt="57" style="0" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28125" widthPt="96" style="0" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28125" widthPt="96" style="0" customWidth="1"/>
-    <col min="8" max="8" width="19.00390625" widthPt="99.75" style="0" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.00390625" widthPt="52.5" style="0" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.421875" widthPt="49.5" style="0" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -919,7 +686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -957,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -995,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1033,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1071,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1109,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1147,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1187,32 +954,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="mailto:Rick@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="mailto:Luna@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId3" display="mailto:Dorthy@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId4" display="mailto:Corleon@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="mailto:Rick@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="mailto:Luna@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="mailto:Dorthy@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId4" display="mailto:Corleon@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113AFA9C-5152-4F66-AAA3-298167C6B8D4}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" widthPt="48" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" widthPt="48" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1226,69 +992,70 @@
         <v>37</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
   </sheetData>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" ht="15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" ht="15">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="15">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://www.e-iceblue.com"/>
-    <hyperlink ref="B8" r:id="rId2" display="mailto:support@e-iceblue.com"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://www.e-iceblue.com/Buy/Spire.XLS.html"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
-  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>